--- a/scripts/interactive_pyaci/tester/results.xlsx
+++ b/scripts/interactive_pyaci/tester/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim-Mac/msc/bm-control/dev/nrf5SDKforMeshv310src/scripts/interactive_pyaci/tester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4F179-9662-794C-92A2-7F3D1BA69EFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E0703A-17F2-1147-A5B6-9D1AD28DABB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4600" yWindow="-19480" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{95D272C1-D739-DC4D-A64E-3C7D17F9B263}"/>
+    <workbookView xWindow="1080" yWindow="2340" windowWidth="32080" windowHeight="17440" activeTab="10" xr2:uid="{95D272C1-D739-DC4D-A64E-3C7D17F9B263}"/>
   </bookViews>
   <sheets>
     <sheet name="test_1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="all" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="test_6" sheetId="11" r:id="rId10"/>
+    <sheet name="test_7" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">test_2!$A$1:$J$1</definedName>
@@ -29,9 +32,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
+    <pivotCache cacheId="2" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="272">
   <si>
     <t>test_file</t>
   </si>
@@ -799,16 +802,83 @@
   <si>
     <t>Sum of SUCCESS</t>
   </si>
+  <si>
+    <t>RETRIES</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>run_times</t>
+  </si>
+  <si>
+    <t>missed</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>test_time</t>
+  </si>
+  <si>
+    <t>rise_time</t>
+  </si>
+  <si>
+    <t>missed_sigs</t>
+  </si>
+  <si>
+    <t>rt_average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>retires_1</t>
+  </si>
+  <si>
+    <t>retires_2</t>
+  </si>
+  <si>
+    <t>retires_0?</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>433,1</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -819,6 +889,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -841,10 +918,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -860,9 +938,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4634,7 +4723,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43676.490905092593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="100" xr:uid="{FB36E499-E835-FD4F-9672-EF4D1D060353}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K101" sheet="Sheet2"/>
+    <worksheetSource ref="A1:L101" sheet="Sheet2"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="test_file" numFmtId="0">
@@ -10131,9 +10220,9 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10168,7 +10257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -10203,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10238,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -10273,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10308,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -10343,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10378,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -10413,7 +10502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -10448,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -10483,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -10518,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -10553,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -10588,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -10623,7 +10712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -10658,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -10693,7 +10782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -10728,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -10763,7 +10852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -10798,7 +10887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -10833,7 +10922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -10868,7 +10957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -10903,7 +10992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -10938,7 +11027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -10973,7 +11062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -11008,7 +11097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -11041,6 +11130,4365 @@
       </c>
       <c r="K26">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7D2227-EFB6-AD49-8F66-E3B1C4F2F6CC}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L28" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11">
+        <f>G2/(D2*E2*F2)</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H20" si="0">G3/(D3*E3*F3)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>6.875E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>6.875E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>4.3750000000000004E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0.3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="I18">
+        <v>1038</v>
+      </c>
+      <c r="J18">
+        <v>460</v>
+      </c>
+      <c r="K18">
+        <v>500</v>
+      </c>
+      <c r="L18">
+        <v>400</v>
+      </c>
+      <c r="M18">
+        <v>560</v>
+      </c>
+      <c r="N18">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="0"/>
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0.3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0.3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>90</v>
+      </c>
+      <c r="I25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0.3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0.3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>104</v>
+      </c>
+      <c r="I27">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0.3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>95</v>
+      </c>
+      <c r="I28">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0.3</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>89</v>
+      </c>
+      <c r="I29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.3</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB50548E-749A-DB45-9518-E691C1083F8B}">
+  <dimension ref="A1:V72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="10.83203125" style="9"/>
+    <col min="12" max="12" width="10.83203125" style="12"/>
+    <col min="13" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="8" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12">
+        <v>561.49</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1170.07</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="P2" s="10">
+        <f>G2/(D2*E2*F2)</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="R2" s="6">
+        <f>AVERAGE(G2:G17)</f>
+        <v>10</v>
+      </c>
+      <c r="S2" s="14">
+        <f>(G2-R$2)^2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>SQRT(AVERAGE(S2:S17))</f>
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="V2" s="9">
+        <f>U2/R2</f>
+        <v>0.60827625302982191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12">
+        <v>561.09</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1125</v>
+      </c>
+      <c r="J3" s="1">
+        <v>409</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.2303</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P6" si="0">G3/(D3*E3*F3)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="S3" s="14">
+        <f t="shared" ref="S3:S13" si="1">(G3-R$2)^2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>558.96</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1133</v>
+      </c>
+      <c r="J4" s="1">
+        <v>414.7</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12">
+        <v>553</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1094</v>
+      </c>
+      <c r="J5" s="1">
+        <v>421.6</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.2046</v>
+      </c>
+      <c r="M5" s="1">
+        <v>210</v>
+      </c>
+      <c r="N5" s="1">
+        <v>25</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.375E-2</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>559.73</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1081</v>
+      </c>
+      <c r="J6" s="1">
+        <v>405.5</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>190</v>
+      </c>
+      <c r="N6" s="1">
+        <v>21</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="12">
+        <v>565.79999999999995</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1138.5999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>396</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>203</v>
+      </c>
+      <c r="N7" s="1">
+        <v>27</v>
+      </c>
+      <c r="P7" s="10">
+        <f>G7/(D7*E7*F7)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12">
+        <v>578.6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1369.26</v>
+      </c>
+      <c r="J8" s="1">
+        <v>402.5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="M8" s="1">
+        <v>206</v>
+      </c>
+      <c r="N8" s="1">
+        <v>23</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" ref="P8:P72" si="2">G8/(D8*E8*F8)</f>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12">
+        <v>593</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1287</v>
+      </c>
+      <c r="J9" s="1">
+        <v>433</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>212</v>
+      </c>
+      <c r="N9" s="1">
+        <v>26</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="12">
+        <v>582.54</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1341</v>
+      </c>
+      <c r="J10" s="1">
+        <v>403.7</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L10" s="12">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>191</v>
+      </c>
+      <c r="N10" s="1">
+        <v>14</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12">
+        <v>567.9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1120.3699999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>410.5</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.248</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>211</v>
+      </c>
+      <c r="N11" s="12">
+        <v>16</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>22</v>
+      </c>
+      <c r="H12" s="12">
+        <v>636.6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1370.1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>213</v>
+      </c>
+      <c r="N12" s="12">
+        <v>23</v>
+      </c>
+      <c r="P12" s="10">
+        <f>G12/(D12*E12*F12)</f>
+        <v>1.375E-2</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="12">
+        <v>749</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1981</v>
+      </c>
+      <c r="J13" s="1">
+        <v>431</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="M13" s="12">
+        <v>186</v>
+      </c>
+      <c r="N13" s="12">
+        <v>20</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12">
+        <v>660.7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1921.2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>369.41</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>205</v>
+      </c>
+      <c r="N14" s="12">
+        <v>16</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="S14" s="14">
+        <f>(G14-R$2)^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>18</v>
+      </c>
+      <c r="H15" s="12">
+        <v>582.6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1320.8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>414.2</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.312</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>188</v>
+      </c>
+      <c r="N15" s="12">
+        <v>23</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="2"/>
+        <v>1.125E-2</v>
+      </c>
+      <c r="S15" s="13">
+        <f>(G15-R$2)^2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" s="12">
+        <v>530.70000000000005</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1118.8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>402.3</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>217</v>
+      </c>
+      <c r="N16" s="12">
+        <v>13</v>
+      </c>
+      <c r="P16" s="10">
+        <f>G16/(D16*E16*F16)</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S16" s="14">
+        <f>(G16-R$2)^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>12</v>
+      </c>
+      <c r="H17" s="12">
+        <v>552.6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1103</v>
+      </c>
+      <c r="J17" s="1">
+        <v>390.4</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>203</v>
+      </c>
+      <c r="N17" s="12">
+        <v>17</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S17" s="14">
+        <f>(G17-R$2)^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>7</v>
+      </c>
+      <c r="N18" s="12">
+        <v>2</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <f>(G18-R$2)^2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>4</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <f>(G19-R$2)^2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>4</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <f>(G20-R$2)^2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>7</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <f>(G21-R$2)^2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f>(G22-R$2)^2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="I23" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J23" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>12</v>
+      </c>
+      <c r="N23" s="12">
+        <v>2</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <f>AVERAGE(G23:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <f>(G23-R$23)^2</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <f>SQRT(AVERAGE(S23:S30))</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="e">
+        <f>U23/R23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>326</v>
+      </c>
+      <c r="J24" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1.29</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>13</v>
+      </c>
+      <c r="N24" s="12">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <f t="shared" ref="S24:S30" si="3">(G24-R$23)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>336.7</v>
+      </c>
+      <c r="J25" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>15</v>
+      </c>
+      <c r="N25" s="12">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>343</v>
+      </c>
+      <c r="J26" s="1">
+        <v>9</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>12</v>
+      </c>
+      <c r="N26" s="12">
+        <v>2</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I27" s="1">
+        <v>331.6</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1.087</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>11</v>
+      </c>
+      <c r="N27" s="12">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>324.8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>22</v>
+      </c>
+      <c r="N28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>327.10000000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>11</v>
+      </c>
+      <c r="N29" s="12">
+        <v>1</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>52.89</v>
+      </c>
+      <c r="I30" s="1">
+        <v>338.9</v>
+      </c>
+      <c r="J30" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>25</v>
+      </c>
+      <c r="N30" s="12">
+        <v>3</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>113</v>
+      </c>
+      <c r="I31" s="1">
+        <v>381.8</v>
+      </c>
+      <c r="J31" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>30</v>
+      </c>
+      <c r="N31" s="12">
+        <v>1</v>
+      </c>
+      <c r="P31" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <f>AVERAGE(G31:G38)</f>
+        <v>0.125</v>
+      </c>
+      <c r="S31" s="14">
+        <f>(G31-R$31)^2</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U31" s="1">
+        <f>SQRT(AVERAGE(S31:S38))</f>
+        <v>0.33071891388307384</v>
+      </c>
+      <c r="V31" s="1">
+        <f>U31/R31</f>
+        <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>354.8</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.877</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>25</v>
+      </c>
+      <c r="N32" s="12">
+        <v>3</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="S32" s="14">
+        <f t="shared" ref="S32:S37" si="4">(G32-R$31)^2</f>
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>356.4</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>31</v>
+      </c>
+      <c r="N33" s="12">
+        <v>5</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="14">
+        <f t="shared" si="4"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="I34" s="1">
+        <v>381.4</v>
+      </c>
+      <c r="J34" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>21</v>
+      </c>
+      <c r="N34" s="12">
+        <v>1</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <f t="shared" si="4"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>384</v>
+      </c>
+      <c r="J35" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>41</v>
+      </c>
+      <c r="N35" s="12">
+        <v>4</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <f t="shared" si="4"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="I36" s="1">
+        <v>366.5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>22</v>
+      </c>
+      <c r="N36" s="12">
+        <v>2</v>
+      </c>
+      <c r="P36" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="14">
+        <f t="shared" si="4"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>370.1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
+        <v>26</v>
+      </c>
+      <c r="N37" s="12">
+        <v>1</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="14">
+        <f>(G37-R$31)^2</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>100</v>
+      </c>
+      <c r="I38" s="1">
+        <v>356.9</v>
+      </c>
+      <c r="J38" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
+        <v>30</v>
+      </c>
+      <c r="N38" s="12">
+        <v>2</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="14">
+        <f>(G38-R$31)^2</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>100</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>129.1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>410.2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0</v>
+      </c>
+      <c r="M39" s="12">
+        <v>39</v>
+      </c>
+      <c r="N39" s="12">
+        <v>3</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <f>AVERAGE(G39:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="14">
+        <f>(G39-R$39)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>404.6</v>
+      </c>
+      <c r="J40" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
+        <v>40</v>
+      </c>
+      <c r="N40" s="12">
+        <v>6</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="14">
+        <f t="shared" ref="S40:S46" si="5">(G40-R$39)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="I41" s="1">
+        <v>966.7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <v>39</v>
+      </c>
+      <c r="N41" s="12">
+        <v>3</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>142.6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>379.7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
+        <v>43</v>
+      </c>
+      <c r="N42" s="12">
+        <v>3</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>176.2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>436.6</v>
+      </c>
+      <c r="J43" s="1">
+        <v>74.3</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="L43" s="12">
+        <v>0</v>
+      </c>
+      <c r="M43" s="12">
+        <v>38</v>
+      </c>
+      <c r="N43" s="12">
+        <v>2</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>175.3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>978.4</v>
+      </c>
+      <c r="J44" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
+        <v>46</v>
+      </c>
+      <c r="N44" s="12">
+        <v>3</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>420.9</v>
+      </c>
+      <c r="J45" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L45" s="12">
+        <v>0</v>
+      </c>
+      <c r="M45" s="12">
+        <v>43</v>
+      </c>
+      <c r="N45" s="12">
+        <v>1</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>132.1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>443.2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
+        <v>33</v>
+      </c>
+      <c r="N46" s="12">
+        <v>2</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f>AVERAGE(G46:G53)</f>
+        <v>0.125</v>
+      </c>
+      <c r="S46" s="14">
+        <f>(G46-R$46)^2</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>100</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="14">
+        <f t="shared" ref="S47:S62" si="6">(G47-R$46)^2</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>100</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>100</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="S49" s="14">
+        <f t="shared" si="6"/>
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>100</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>100</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="I54" s="1">
+        <v>145.1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="P54" s="10">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="R54" s="1">
+        <f>AVERAGE(G54:G68)</f>
+        <v>7.4666666666666668</v>
+      </c>
+      <c r="S54" s="14">
+        <f>(G54-R$54)^2</f>
+        <v>29.884444444444444</v>
+      </c>
+      <c r="U54" s="1">
+        <f>SQRT(AVERAGE(S54:S68))</f>
+        <v>4.3492017147466902</v>
+      </c>
+      <c r="V54" s="9">
+        <f>U54/R54</f>
+        <v>0.58248237251071744</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="P55" s="10">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="S55" s="14">
+        <f t="shared" ref="S55:S72" si="7">(G55-R$54)^2</f>
+        <v>20.551111111111108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I56" s="1">
+        <v>145.5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="P56" s="10">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="S56" s="14">
+        <f t="shared" si="7"/>
+        <v>29.884444444444444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="I57" s="1">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="P57" s="10">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="S57" s="14">
+        <f t="shared" si="7"/>
+        <v>29.884444444444444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="I58" s="1">
+        <v>264.5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="P58" s="10">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="S58" s="14">
+        <f t="shared" si="7"/>
+        <v>29.884444444444444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>100</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>12</v>
+      </c>
+      <c r="H59" s="1">
+        <v>38</v>
+      </c>
+      <c r="I59" s="1">
+        <v>166.7</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="P59" s="10">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="S59" s="14">
+        <f t="shared" si="7"/>
+        <v>20.551111111111108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I60" s="1">
+        <v>178.9</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="P60" s="10">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="S60" s="14">
+        <f t="shared" si="7"/>
+        <v>0.28444444444444433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>42.39</v>
+      </c>
+      <c r="I61" s="1">
+        <v>139.4</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="P61" s="10">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="S61" s="14">
+        <f t="shared" si="7"/>
+        <v>0.28444444444444433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="I62" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="P62" s="10">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="S62" s="14">
+        <f t="shared" si="7"/>
+        <v>0.28444444444444433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="B63" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>18</v>
+      </c>
+      <c r="H63" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I63" s="1">
+        <v>131.5</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="P63" s="10">
+        <f>G63/(D63*E63*F63)</f>
+        <v>0.09</v>
+      </c>
+      <c r="S63" s="14">
+        <f t="shared" si="7"/>
+        <v>110.9511111111111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="B64" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>100</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I64" s="1">
+        <v>134.9</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="9">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="P64" s="10">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="S64" s="14">
+        <f t="shared" si="7"/>
+        <v>2.1511111111111116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
+      <c r="B65" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>100</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>6</v>
+      </c>
+      <c r="H65" s="1">
+        <v>34.79</v>
+      </c>
+      <c r="I65" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P65" s="10">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="S65" s="14">
+        <f t="shared" si="7"/>
+        <v>2.1511111111111116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="B66" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>100</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8</v>
+      </c>
+      <c r="H66" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="I66" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="P66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="S66" s="14">
+        <f t="shared" si="7"/>
+        <v>0.28444444444444433</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
+      <c r="B67" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>100</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>10</v>
+      </c>
+      <c r="H67" s="1">
+        <v>35</v>
+      </c>
+      <c r="I67" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="P67" s="10">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="S67" s="14">
+        <f t="shared" si="7"/>
+        <v>6.4177777777777774</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
+      <c r="B68" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>100</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="I68" s="1">
+        <v>130.6</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P68" s="10">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="S68" s="14">
+        <f t="shared" si="7"/>
+        <v>0.28444444444444433</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="D69" s="1">
+        <v>500</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>86</v>
+      </c>
+      <c r="H69" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="I69" s="1">
+        <v>337.9</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="P69" s="10">
+        <f>G69/(D69*E69*F69)</f>
+        <v>5.7333333333333333E-2</v>
+      </c>
+      <c r="S69" s="14">
+        <f t="shared" si="7"/>
+        <v>6167.4844444444443</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="D70" s="1">
+        <v>500</v>
+      </c>
+      <c r="E70" s="1">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>80</v>
+      </c>
+      <c r="H70" s="1">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1190.3</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="P70" s="10">
+        <f t="shared" si="2"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="S70" s="14">
+        <f t="shared" si="7"/>
+        <v>5261.0844444444438</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="D71" s="1">
+        <v>500</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>65</v>
+      </c>
+      <c r="H71" s="1">
+        <v>237.8</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1286</v>
+      </c>
+      <c r="J71" s="1">
+        <v>24.96</v>
+      </c>
+      <c r="K71" s="9">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="P71" s="10">
+        <f t="shared" si="2"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="S71" s="14">
+        <f t="shared" si="7"/>
+        <v>3310.0844444444442</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="D72" s="1">
+        <v>500</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>70</v>
+      </c>
+      <c r="H72" s="1">
+        <v>99.1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>538.5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="P72" s="10">
+        <f t="shared" si="2"/>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="S72" s="14">
+        <f t="shared" si="7"/>
+        <v>3910.4177777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA5E0F8-B7C7-E541-B651-D5D44D0E3250}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="10.5" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>440</v>
+      </c>
+      <c r="B1">
+        <f>A1-A$17</f>
+        <v>-31.333333333333314</v>
+      </c>
+      <c r="C1" s="7">
+        <f>B1^2</f>
+        <v>981.77777777777658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>490</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B15" si="0">A2-A$17</f>
+        <v>18.666666666666686</v>
+      </c>
+      <c r="C2" s="7">
+        <f t="shared" ref="C2:C15" si="1">B2^2</f>
+        <v>348.44444444444514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>430</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>-41.333333333333314</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" si="1"/>
+        <v>1708.444444444443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>430</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-41.333333333333314</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="1"/>
+        <v>1708.444444444443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>650</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>178.66666666666669</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>31921.777777777785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>28.666666666666686</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>821.77777777777885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>510</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>38.666666666666686</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>1495.1111111111127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>530</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>58.666666666666686</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>3441.7777777777801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-71.333333333333314</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>5088.4444444444416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>460</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-11.333333333333314</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>128.444444444444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>410</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-61.333333333333314</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>3761.7777777777756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>420</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>-51.333333333333314</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>2635.111111111109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>490</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>18.666666666666686</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>348.44444444444514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>430</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>-41.333333333333314</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>1708.444444444443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>480</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>8.6666666666666856</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>75.111111111111441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f>AVERAGE(A1:A15)</f>
+        <v>471.33333333333331</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SQRT(AVERAGE(C1:C15))</f>
+        <v>61.195497292602248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="9">
+        <f>C17/A17</f>
+        <v>0.12983485988529472</v>
       </c>
     </row>
   </sheetData>
@@ -11056,12 +15504,12 @@
       <selection sqref="A1:K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11096,7 +15544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -11132,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -11168,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -11204,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -11240,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -11276,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -11312,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -11348,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -11384,7 +15832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -11420,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -11456,7 +15904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -11492,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -11528,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -11564,7 +16012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -11600,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -11636,7 +16084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -11672,7 +16120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -11708,7 +16156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -11744,7 +16192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -11780,7 +16228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -11816,7 +16264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -11852,7 +16300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -11888,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -11924,7 +16372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -11960,7 +16408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -11996,7 +16444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -12032,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -12068,7 +16516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -12104,7 +16552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -12140,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -12176,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -12212,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -12248,7 +16696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -12284,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -12320,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -12356,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -12392,7 +16840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -12428,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -12464,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -12500,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -12536,7 +16984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -12572,7 +17020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -12608,7 +17056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -12644,7 +17092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -12680,7 +17128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -12716,7 +17164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -12752,7 +17200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -12788,7 +17236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -12824,7 +17272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -12860,7 +17308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -12914,12 +17362,12 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12954,7 +17402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -12990,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -13026,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -13062,7 +17510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -13098,7 +17546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -13134,7 +17582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -13170,7 +17618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -13206,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -13242,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -13278,7 +17726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -13314,7 +17762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -13350,7 +17798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -13386,7 +17834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -13422,7 +17870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -13458,7 +17906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -13494,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -13530,7 +17978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -13566,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -13602,7 +18050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -13638,7 +18086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -13674,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -13710,7 +18158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -13746,7 +18194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -13782,7 +18230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -13818,7 +18266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -13854,7 +18302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -13890,7 +18338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -13926,7 +18374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -13962,7 +18410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -13998,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -14034,7 +18482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -14070,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -14106,7 +18554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -14138,11 +18586,11 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="1">H34-J34</f>
+        <f t="shared" ref="K34:K51" si="1">H34-J34</f>
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -14178,7 +18626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -14214,7 +18662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -14250,7 +18698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -14286,7 +18734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -14322,7 +18770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -14358,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -14394,7 +18842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -14430,7 +18878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -14466,7 +18914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -14502,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -14538,7 +18986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -14574,7 +19022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -14610,7 +19058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -14646,7 +19094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -14682,7 +19130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -14718,7 +19166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -14772,9 +19220,9 @@
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14809,7 +19257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -14845,7 +19293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -14881,7 +19329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -14917,7 +19365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -14953,7 +19401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -14989,7 +19437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -15025,7 +19473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -15061,7 +19509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -15097,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -15133,7 +19581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -15169,7 +19617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -15205,7 +19653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -15241,7 +19689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -15277,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -15313,7 +19761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -15349,7 +19797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -15385,7 +19833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -15421,7 +19869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -15457,7 +19905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -15493,7 +19941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -15529,7 +19977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -15565,7 +20013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -15601,7 +20049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -15637,7 +20085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -15673,7 +20121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -15709,7 +20157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -15745,7 +20193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -15781,7 +20229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -15817,7 +20265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -15853,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>227</v>
       </c>
@@ -15889,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>228</v>
       </c>
@@ -15925,7 +20373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>229</v>
       </c>
@@ -15961,7 +20409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>230</v>
       </c>
@@ -15997,7 +20445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>231</v>
       </c>
@@ -16033,7 +20481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -16069,7 +20517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -16105,7 +20553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>234</v>
       </c>
@@ -16141,7 +20589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>235</v>
       </c>
@@ -16177,7 +20625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>236</v>
       </c>
@@ -16213,7 +20661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>237</v>
       </c>
@@ -16249,7 +20697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>238</v>
       </c>
@@ -16285,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -16321,7 +20769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>240</v>
       </c>
@@ -16357,7 +20805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>241</v>
       </c>
@@ -16393,7 +20841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>242</v>
       </c>
@@ -16429,7 +20877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -16465,7 +20913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>244</v>
       </c>
@@ -16501,7 +20949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>245</v>
       </c>
@@ -16537,7 +20985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -16573,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>247</v>
       </c>
@@ -16622,9 +21070,9 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16659,7 +21107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -16695,7 +21143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -16731,7 +21179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -16767,7 +21215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -16803,7 +21251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -16839,7 +21287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -16875,7 +21323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -16911,7 +21359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -16947,7 +21395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -16983,7 +21431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -17019,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -17055,7 +21503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -17091,7 +21539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -17127,7 +21575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -17163,7 +21611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -17199,7 +21647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -17235,7 +21683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -17271,7 +21719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -17307,7 +21755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -17343,7 +21791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -17379,7 +21827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -17415,7 +21863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -17451,7 +21899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -17487,7 +21935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -17523,7 +21971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>171</v>
       </c>
@@ -17559,7 +22007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -17595,7 +22043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -17631,7 +22079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>174</v>
       </c>
@@ -17667,7 +22115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -17703,7 +22151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -17739,7 +22187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -17775,7 +22223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -17811,7 +22259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -17847,7 +22295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -17883,7 +22331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -17919,7 +22367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -17955,7 +22403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -17991,7 +22439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -18027,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>185</v>
       </c>
@@ -18063,7 +22511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -18099,7 +22547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>187</v>
       </c>
@@ -18135,7 +22583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -18171,7 +22619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -18207,7 +22655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -18243,7 +22691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -18279,7 +22727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -18315,7 +22763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -18351,7 +22799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -18387,7 +22835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -18423,7 +22871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>196</v>
       </c>
@@ -18468,11 +22916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B107BF-18F9-B743-8321-CAEA41BA9466}">
   <dimension ref="A3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F14"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
@@ -18489,7 +22937,7 @@
     <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>249</v>
       </c>
@@ -18497,7 +22945,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -18514,7 +22962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -18536,7 +22984,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -18562,7 +23010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>0.75</v>
       </c>
@@ -18588,7 +23036,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>0.5</v>
       </c>
@@ -18614,7 +23062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>0.25</v>
       </c>
@@ -18640,7 +23088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>0.1</v>
       </c>
@@ -18666,7 +23114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -18692,7 +23140,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>0.05</v>
       </c>
@@ -18718,7 +23166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -18744,7 +23192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>0.01</v>
       </c>
@@ -18770,7 +23218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>92</v>
       </c>
@@ -18805,9 +23253,9 @@
       <selection activeCell="K201" sqref="A1:K201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18842,7 +23290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -18878,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -18914,7 +23362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -18950,7 +23398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -18986,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -19022,7 +23470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -19058,7 +23506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -19094,7 +23542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -19130,7 +23578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -19166,7 +23614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -19202,7 +23650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -19238,7 +23686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -19274,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -19310,7 +23758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -19346,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -19382,7 +23830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -19418,7 +23866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -19454,7 +23902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -19490,7 +23938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -19526,7 +23974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19562,7 +24010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -19598,7 +24046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -19634,7 +24082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -19670,7 +24118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -19706,7 +24154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -19742,7 +24190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -19778,7 +24226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -19814,7 +24262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -19850,7 +24298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -19886,7 +24334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -19922,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -19958,7 +24406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -19994,7 +24442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -20030,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -20066,7 +24514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -20102,7 +24550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -20138,7 +24586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -20174,7 +24622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -20210,7 +24658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -20246,7 +24694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -20282,7 +24730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -20318,7 +24766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -20354,7 +24802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -20390,7 +24838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -20426,7 +24874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -20462,7 +24910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -20498,7 +24946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -20534,7 +24982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -20570,7 +25018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -20606,7 +25054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -20642,7 +25090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -20678,7 +25126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -20714,7 +25162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -20750,7 +25198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -20786,7 +25234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -20822,7 +25270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -20858,7 +25306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -20894,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -20930,7 +25378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -20966,7 +25414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -21002,7 +25450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -21038,7 +25486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -21074,7 +25522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -21110,7 +25558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -21146,7 +25594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -21182,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -21218,7 +25666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -21254,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -21290,7 +25738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -21326,7 +25774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -21362,7 +25810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -21398,7 +25846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -21434,7 +25882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -21470,7 +25918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>130</v>
       </c>
@@ -21506,7 +25954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>135</v>
       </c>
@@ -21542,7 +25990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -21578,7 +26026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -21614,7 +26062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>125</v>
       </c>
@@ -21650,7 +26098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -21686,7 +26134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -21722,7 +26170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -21758,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -21794,7 +26242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -21826,11 +26274,11 @@
         <v>43</v>
       </c>
       <c r="K84">
-        <f t="shared" ref="K84:K115" si="2">H84-J84</f>
+        <f t="shared" ref="K84:K102" si="2">H84-J84</f>
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>137</v>
       </c>
@@ -21866,7 +26314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -21902,7 +26350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -21938,7 +26386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -21974,7 +26422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>127</v>
       </c>
@@ -22010,7 +26458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -22046,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>143</v>
       </c>
@@ -22082,7 +26530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -22118,7 +26566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -22154,7 +26602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>128</v>
       </c>
@@ -22190,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -22226,7 +26674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -22262,7 +26710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -22298,7 +26746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -22334,7 +26782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -22370,7 +26818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>140</v>
       </c>
@@ -22406,7 +26854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>145</v>
       </c>
@@ -22442,7 +26890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>197</v>
       </c>
@@ -22478,7 +26926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>199</v>
       </c>
@@ -22514,7 +26962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -22550,7 +26998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -22586,7 +27034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -22622,7 +27070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -22658,7 +27106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>204</v>
       </c>
@@ -22694,7 +27142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>205</v>
       </c>
@@ -22730,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -22766,7 +27214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -22802,7 +27250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>208</v>
       </c>
@@ -22838,7 +27286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>209</v>
       </c>
@@ -22874,7 +27322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>210</v>
       </c>
@@ -22910,7 +27358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>211</v>
       </c>
@@ -22946,7 +27394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>212</v>
       </c>
@@ -22982,7 +27430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>213</v>
       </c>
@@ -23018,7 +27466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>214</v>
       </c>
@@ -23054,7 +27502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>215</v>
       </c>
@@ -23090,7 +27538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>216</v>
       </c>
@@ -23126,7 +27574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>217</v>
       </c>
@@ -23162,7 +27610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -23198,7 +27646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>219</v>
       </c>
@@ -23234,7 +27682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -23270,7 +27718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>221</v>
       </c>
@@ -23306,7 +27754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>222</v>
       </c>
@@ -23342,7 +27790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>223</v>
       </c>
@@ -23378,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -23414,7 +27862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>225</v>
       </c>
@@ -23450,7 +27898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -23486,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>227</v>
       </c>
@@ -23522,7 +27970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>228</v>
       </c>
@@ -23558,7 +28006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>229</v>
       </c>
@@ -23594,7 +28042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>230</v>
       </c>
@@ -23630,7 +28078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>231</v>
       </c>
@@ -23666,7 +28114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>232</v>
       </c>
@@ -23702,7 +28150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>233</v>
       </c>
@@ -23738,7 +28186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>234</v>
       </c>
@@ -23774,7 +28222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>235</v>
       </c>
@@ -23810,7 +28258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>236</v>
       </c>
@@ -23846,7 +28294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>237</v>
       </c>
@@ -23882,7 +28330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>238</v>
       </c>
@@ -23918,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>239</v>
       </c>
@@ -23954,7 +28402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>240</v>
       </c>
@@ -23990,7 +28438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>241</v>
       </c>
@@ -24026,7 +28474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>242</v>
       </c>
@@ -24062,7 +28510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>243</v>
       </c>
@@ -24098,7 +28546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>244</v>
       </c>
@@ -24134,7 +28582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>245</v>
       </c>
@@ -24170,7 +28618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>246</v>
       </c>
@@ -24206,7 +28654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>247</v>
       </c>
@@ -24242,7 +28690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -24278,7 +28726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -24314,7 +28762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -24350,7 +28798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -24386,7 +28834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -24422,7 +28870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -24458,7 +28906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -24494,7 +28942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -24530,7 +28978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -24566,7 +29014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -24602,7 +29050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -24638,7 +29086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -24674,7 +29122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -24710,7 +29158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -24746,7 +29194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -24782,7 +29230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -24818,7 +29266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -24854,7 +29302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -24890,7 +29338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -24926,7 +29374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -24962,7 +29410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -24998,7 +29446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -25034,7 +29482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -25070,7 +29518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -25106,7 +29554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -25142,7 +29590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -25178,7 +29626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -25214,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>174</v>
       </c>
@@ -25250,7 +29698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -25286,7 +29734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -25322,7 +29770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -25358,7 +29806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -25394,7 +29842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>179</v>
       </c>
@@ -25430,7 +29878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>180</v>
       </c>
@@ -25466,7 +29914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -25502,7 +29950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -25538,7 +29986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -25574,7 +30022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -25610,7 +30058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>185</v>
       </c>
@@ -25646,7 +30094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -25682,7 +30130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -25718,7 +30166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -25754,7 +30202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -25790,7 +30238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>190</v>
       </c>
@@ -25826,7 +30274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>191</v>
       </c>
@@ -25862,7 +30310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -25898,7 +30346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>193</v>
       </c>
@@ -25934,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>194</v>
       </c>
@@ -25970,7 +30418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>195</v>
       </c>
@@ -26006,7 +30454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>196</v>
       </c>
@@ -26055,14 +30503,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>93</v>
       </c>
@@ -26070,7 +30518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>96</v>
       </c>
@@ -26078,7 +30526,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>0.01</v>
       </c>
@@ -26086,7 +30534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26094,7 +30542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>0.05</v>
       </c>
@@ -26102,7 +30550,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -26110,7 +30558,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>0.1</v>
       </c>
@@ -26118,7 +30566,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4">
         <v>0.25</v>
       </c>
@@ -26126,7 +30574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
@@ -26134,7 +30582,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4">
         <v>0.75</v>
       </c>
@@ -26142,7 +30590,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -26150,7 +30598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -26158,7 +30606,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -26166,7 +30614,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4">
         <v>0.01</v>
       </c>
@@ -26174,7 +30622,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26182,7 +30630,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4">
         <v>0.05</v>
       </c>
@@ -26190,7 +30638,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -26198,7 +30646,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4">
         <v>0.1</v>
       </c>
@@ -26206,7 +30654,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>0.25</v>
       </c>
@@ -26214,7 +30662,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4">
         <v>0.5</v>
       </c>
@@ -26222,7 +30670,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4">
         <v>0.75</v>
       </c>
@@ -26230,7 +30678,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -26238,7 +30686,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -26246,7 +30694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>92</v>
       </c>
@@ -26267,7 +30715,7 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -26290,7 +30738,7 @@
     <col min="26" max="26" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>93</v>
       </c>
@@ -26301,7 +30749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>0.01</v>
       </c>
@@ -26313,7 +30761,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -26325,7 +30773,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
@@ -26337,7 +30785,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -26349,7 +30797,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>0.1</v>
       </c>
@@ -26361,7 +30809,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>0.25</v>
       </c>
@@ -26373,7 +30821,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>0.5</v>
       </c>
@@ -26385,7 +30833,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>0.75</v>
       </c>
@@ -26397,7 +30845,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -26409,7 +30857,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -26421,7 +30869,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>92</v>
       </c>

--- a/scripts/interactive_pyaci/tester/results.xlsx
+++ b/scripts/interactive_pyaci/tester/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim-Mac/msc/bm-control/dev/nrf5SDKforMeshv310src/scripts/interactive_pyaci/tester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E0703A-17F2-1147-A5B6-9D1AD28DABB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B61DDE-F09B-044E-9FCB-A86310F634B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2340" windowWidth="32080" windowHeight="17440" activeTab="10" xr2:uid="{95D272C1-D739-DC4D-A64E-3C7D17F9B263}"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="10" xr2:uid="{95D272C1-D739-DC4D-A64E-3C7D17F9B263}"/>
   </bookViews>
   <sheets>
     <sheet name="test_1" sheetId="1" r:id="rId1"/>
@@ -873,10 +873,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.00000%"/>
+    <numFmt numFmtId="170" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -922,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -948,6 +951,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11922,9 +11928,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB50548E-749A-DB45-9518-E691C1083F8B}">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11934,7 +11943,8 @@
     <col min="9" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="10.83203125" style="9"/>
     <col min="12" max="12" width="10.83203125" style="12"/>
-    <col min="13" max="18" width="10.83203125" style="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -12020,7 +12030,7 @@
       <c r="K2" s="10">
         <v>0.22670000000000001</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="16">
         <f>G2/(D2*E2*F2)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -12075,7 +12085,7 @@
       <c r="K3" s="10">
         <v>0.2303</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="16">
         <f t="shared" ref="P3:P6" si="0">G3/(D3*E3*F3)</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -12118,7 +12128,7 @@
       <c r="K4" s="10">
         <v>0.25700000000000001</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12167,7 +12177,7 @@
       <c r="N5" s="1">
         <v>25</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="16">
         <f t="shared" si="0"/>
         <v>1.375E-2</v>
       </c>
@@ -12216,7 +12226,7 @@
       <c r="N6" s="1">
         <v>21</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="16">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -12265,7 +12275,7 @@
       <c r="N7" s="1">
         <v>27</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="16">
         <f>G7/(D7*E7*F7)</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12314,7 +12324,7 @@
       <c r="N8" s="1">
         <v>23</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="16">
         <f t="shared" ref="P8:P72" si="2">G8/(D8*E8*F8)</f>
         <v>3.7499999999999999E-3</v>
       </c>
@@ -12363,7 +12373,7 @@
       <c r="N9" s="1">
         <v>26</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="16">
         <f t="shared" si="2"/>
         <v>7.4999999999999997E-3</v>
       </c>
@@ -12415,7 +12425,7 @@
       <c r="N10" s="1">
         <v>14</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="16">
         <f t="shared" si="2"/>
         <v>3.7499999999999999E-3</v>
       </c>
@@ -12467,7 +12477,7 @@
       <c r="N11" s="12">
         <v>16</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="16">
         <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12519,7 +12529,7 @@
       <c r="N12" s="12">
         <v>23</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="16">
         <f>G12/(D12*E12*F12)</f>
         <v>1.375E-2</v>
       </c>
@@ -12568,7 +12578,7 @@
       <c r="N13" s="12">
         <v>20</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="16">
         <f t="shared" si="2"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -12620,12 +12630,12 @@
       <c r="N14" s="12">
         <v>16</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="16">
         <f t="shared" si="2"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="S14" s="14">
-        <f>(G14-R$2)^2</f>
+        <f t="shared" ref="S14:S22" si="3">(G14-R$2)^2</f>
         <v>16</v>
       </c>
     </row>
@@ -12672,12 +12682,12 @@
       <c r="N15" s="12">
         <v>23</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="16">
         <f t="shared" si="2"/>
         <v>1.125E-2</v>
       </c>
       <c r="S15" s="13">
-        <f>(G15-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
@@ -12724,12 +12734,12 @@
       <c r="N16" s="12">
         <v>13</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="16">
         <f>G16/(D16*E16*F16)</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="S16" s="14">
-        <f>(G16-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -12776,12 +12786,12 @@
       <c r="N17" s="12">
         <v>17</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="16">
         <f t="shared" si="2"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="S17" s="14">
-        <f>(G17-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -12817,12 +12827,12 @@
       <c r="N18" s="12">
         <v>2</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S18" s="14">
-        <f>(G18-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -12858,12 +12868,12 @@
       <c r="N19" s="12">
         <v>0</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S19" s="14">
-        <f>(G19-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -12899,12 +12909,12 @@
       <c r="N20" s="12">
         <v>0</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S20" s="14">
-        <f>(G20-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -12940,12 +12950,12 @@
       <c r="N21" s="12">
         <v>0</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S21" s="14">
-        <f>(G21-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -12981,12 +12991,12 @@
       <c r="N22" s="12">
         <v>0</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="14">
-        <f>(G22-R$2)^2</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -13033,7 +13043,7 @@
       <c r="N23" s="12">
         <v>2</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13097,12 +13107,12 @@
       <c r="N24" s="12">
         <v>1</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S24" s="14">
-        <f t="shared" ref="S24:S30" si="3">(G24-R$23)^2</f>
+        <f t="shared" ref="S24:S30" si="4">(G24-R$23)^2</f>
         <v>0</v>
       </c>
     </row>
@@ -13149,12 +13159,12 @@
       <c r="N25" s="12">
         <v>1</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13201,12 +13211,12 @@
       <c r="N26" s="12">
         <v>2</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13253,12 +13263,12 @@
       <c r="N27" s="12">
         <v>1</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13305,12 +13315,12 @@
       <c r="N28" s="12">
         <v>1</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13357,12 +13367,12 @@
       <c r="N29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13409,12 +13419,12 @@
       <c r="N30" s="12">
         <v>3</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13461,7 +13471,7 @@
       <c r="N31" s="12">
         <v>1</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13525,12 +13535,12 @@
       <c r="N32" s="12">
         <v>3</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="16">
         <f t="shared" si="2"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="S32" s="14">
-        <f t="shared" ref="S32:S37" si="4">(G32-R$31)^2</f>
+        <f t="shared" ref="S32:S36" si="5">(G32-R$31)^2</f>
         <v>0.765625</v>
       </c>
     </row>
@@ -13577,12 +13587,12 @@
       <c r="N33" s="12">
         <v>5</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5625E-2</v>
       </c>
     </row>
@@ -13629,12 +13639,12 @@
       <c r="N34" s="12">
         <v>1</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S34" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5625E-2</v>
       </c>
     </row>
@@ -13681,12 +13691,12 @@
       <c r="N35" s="12">
         <v>4</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S35" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5625E-2</v>
       </c>
     </row>
@@ -13733,12 +13743,12 @@
       <c r="N36" s="12">
         <v>2</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S36" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5625E-2</v>
       </c>
     </row>
@@ -13785,7 +13795,7 @@
       <c r="N37" s="12">
         <v>1</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13837,7 +13847,7 @@
       <c r="N38" s="12">
         <v>2</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13889,8 +13899,8 @@
       <c r="N39" s="12">
         <v>3</v>
       </c>
-      <c r="P39" s="10">
-        <f t="shared" si="2"/>
+      <c r="P39" s="16">
+        <f>G39/(D39*E39*F39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="1">
@@ -13945,12 +13955,12 @@
       <c r="N40" s="12">
         <v>6</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S40" s="14">
-        <f t="shared" ref="S40:S46" si="5">(G40-R$39)^2</f>
+        <f t="shared" ref="S40:S45" si="6">(G40-R$39)^2</f>
         <v>0</v>
       </c>
     </row>
@@ -13997,12 +14007,12 @@
       <c r="N41" s="12">
         <v>3</v>
       </c>
-      <c r="P41" s="10">
-        <f t="shared" si="2"/>
+      <c r="P41" s="16">
+        <f>G41/(D41*E41*F41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14049,12 +14059,12 @@
       <c r="N42" s="12">
         <v>3</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S42" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14101,12 +14111,12 @@
       <c r="N43" s="12">
         <v>2</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S43" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14153,12 +14163,12 @@
       <c r="N44" s="12">
         <v>3</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S44" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14205,12 +14215,12 @@
       <c r="N45" s="12">
         <v>1</v>
       </c>
-      <c r="P45" s="10">
+      <c r="P45" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14257,17 +14267,13 @@
       <c r="N46" s="12">
         <v>2</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R46" s="1">
-        <f>AVERAGE(G46:G53)</f>
-        <v>0.125</v>
-      </c>
       <c r="S46" s="14">
-        <f>(G46-R$46)^2</f>
-        <v>1.5625E-2</v>
+        <f>(G46-R$47)^2</f>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -14292,13 +14298,21 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q47" s="15">
+        <f>G47/(D47*E47*F47)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f>AVERAGE(G47:G53)</f>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="S47" s="14">
-        <f t="shared" ref="S47:S62" si="6">(G47-R$46)^2</f>
-        <v>1.5625E-2</v>
+        <f>(G47-R$47)^2</f>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -14323,13 +14337,18 @@
       <c r="G48" s="1">
         <v>0</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q48" s="15">
+        <f t="shared" ref="Q48:Q72" si="7">G48/(D48*E48*F48)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="17"/>
       <c r="S48" s="14">
-        <f t="shared" si="6"/>
-        <v>1.5625E-2</v>
+        <f>(G48-R$47)^2</f>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -14354,13 +14373,17 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49" s="16">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
+      <c r="Q49" s="15">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
       <c r="S49" s="14">
-        <f t="shared" si="6"/>
-        <v>0.765625</v>
+        <f>(G49-R$47)^2</f>
+        <v>0.73469387755102056</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -14385,13 +14408,17 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="P50" s="10">
+      <c r="P50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q50" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="S50" s="14">
-        <f t="shared" si="6"/>
-        <v>1.5625E-2</v>
+        <f>(G50-R$47)^2</f>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -14416,13 +14443,17 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P51" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q51" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="S51" s="14">
-        <f t="shared" si="6"/>
-        <v>1.5625E-2</v>
+        <f>(G51-R$47)^2</f>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -14447,13 +14478,17 @@
       <c r="G52" s="1">
         <v>0</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q52" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="S52" s="14">
-        <f t="shared" si="6"/>
-        <v>1.5625E-2</v>
+        <f>(G52-R$47)^2</f>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -14478,13 +14513,17 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q53" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="S53" s="14">
-        <f t="shared" si="6"/>
-        <v>1.5625E-2</v>
+        <f>(G53-R$47)^2</f>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -14521,8 +14560,12 @@
       <c r="K54" s="9">
         <v>0.46700000000000003</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="16">
         <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q54" s="15">
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
       <c r="R54" s="1">
@@ -14576,12 +14619,17 @@
       <c r="K55" s="9">
         <v>0.47499999999999998</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="16">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
+      <c r="Q55" s="15">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="R55" s="11"/>
       <c r="S55" s="14">
-        <f t="shared" ref="S55:S72" si="7">(G55-R$54)^2</f>
+        <f t="shared" ref="S55:S72" si="8">(G55-R$54)^2</f>
         <v>20.551111111111108</v>
       </c>
     </row>
@@ -14619,12 +14667,16 @@
       <c r="K56" s="9">
         <v>0.54800000000000004</v>
       </c>
-      <c r="P56" s="10">
+      <c r="P56" s="16">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
+      <c r="Q56" s="15">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
       <c r="S56" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.884444444444444</v>
       </c>
     </row>
@@ -14662,12 +14714,16 @@
       <c r="K57" s="9">
         <v>0.54479999999999995</v>
       </c>
-      <c r="P57" s="10">
+      <c r="P57" s="16">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
+      <c r="Q57" s="15">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
       <c r="S57" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.884444444444444</v>
       </c>
     </row>
@@ -14705,12 +14761,16 @@
       <c r="K58" s="9">
         <v>0.89600000000000002</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="16">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
+      <c r="Q58" s="15">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
       <c r="S58" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.884444444444444</v>
       </c>
     </row>
@@ -14748,12 +14808,16 @@
       <c r="K59" s="9">
         <v>0.72599999999999998</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="16">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
+      <c r="Q59" s="15">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
       <c r="S59" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20.551111111111108</v>
       </c>
     </row>
@@ -14791,12 +14855,16 @@
       <c r="K60" s="9">
         <v>0.76900000000000002</v>
       </c>
-      <c r="P60" s="10">
+      <c r="P60" s="16">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
+      <c r="Q60" s="15">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
       <c r="S60" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28444444444444433</v>
       </c>
     </row>
@@ -14834,12 +14902,16 @@
       <c r="K61" s="9">
         <v>0.6</v>
       </c>
-      <c r="P61" s="10">
+      <c r="P61" s="16">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
+      <c r="Q61" s="15">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
       <c r="S61" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28444444444444433</v>
       </c>
     </row>
@@ -14877,12 +14949,16 @@
       <c r="K62" s="9">
         <v>0.47799999999999998</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P62" s="16">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
+      <c r="Q62" s="15">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
       <c r="S62" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28444444444444433</v>
       </c>
     </row>
@@ -14917,12 +14993,16 @@
       <c r="K63" s="9">
         <v>0.72</v>
       </c>
-      <c r="P63" s="10">
+      <c r="P63" s="16">
         <f>G63/(D63*E63*F63)</f>
         <v>0.09</v>
       </c>
+      <c r="Q63" s="15">
+        <f t="shared" si="7"/>
+        <v>0.09</v>
+      </c>
       <c r="S63" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>110.9511111111111</v>
       </c>
     </row>
@@ -14957,12 +15037,16 @@
       <c r="K64" s="9">
         <v>0.48899999999999999</v>
       </c>
-      <c r="P64" s="10">
+      <c r="P64" s="16">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
+      <c r="Q64" s="15">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
       <c r="S64" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1511111111111116</v>
       </c>
     </row>
@@ -14997,12 +15081,16 @@
       <c r="K65" s="9">
         <v>0.45300000000000001</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="16">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
+      <c r="Q65" s="15">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
       <c r="S65" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1511111111111116</v>
       </c>
     </row>
@@ -15037,12 +15125,16 @@
       <c r="K66" s="9">
         <v>0.53700000000000003</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P66" s="16">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
+      <c r="Q66" s="15">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
       <c r="S66" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28444444444444433</v>
       </c>
     </row>
@@ -15077,12 +15169,16 @@
       <c r="K67" s="9">
         <v>0.53900000000000003</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P67" s="16">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
+      <c r="Q67" s="15">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
       <c r="S67" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4177777777777774</v>
       </c>
     </row>
@@ -15117,12 +15213,16 @@
       <c r="K68" s="9">
         <v>0.56499999999999995</v>
       </c>
-      <c r="P68" s="10">
+      <c r="P68" s="16">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
+      <c r="Q68" s="15">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
       <c r="S68" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28444444444444433</v>
       </c>
     </row>
@@ -15151,12 +15251,16 @@
       <c r="K69" s="9">
         <v>0.42899999999999999</v>
       </c>
-      <c r="P69" s="10">
+      <c r="P69" s="16">
         <f>G69/(D69*E69*F69)</f>
         <v>5.7333333333333333E-2</v>
       </c>
+      <c r="Q69" s="15">
+        <f t="shared" si="7"/>
+        <v>5.7333333333333333E-2</v>
+      </c>
       <c r="S69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6167.4844444444443</v>
       </c>
     </row>
@@ -15185,12 +15289,16 @@
       <c r="K70" s="9">
         <v>1.7150000000000001</v>
       </c>
-      <c r="P70" s="10">
+      <c r="P70" s="16">
         <f t="shared" si="2"/>
         <v>5.3333333333333337E-2</v>
       </c>
+      <c r="Q70" s="15">
+        <f>G70/(D70*E70*F70)</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
       <c r="S70" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5261.0844444444438</v>
       </c>
     </row>
@@ -15219,12 +15327,16 @@
       <c r="K71" s="9">
         <v>1.4670000000000001</v>
       </c>
-      <c r="P71" s="10">
+      <c r="P71" s="16">
         <f t="shared" si="2"/>
         <v>4.3333333333333335E-2</v>
       </c>
+      <c r="Q71" s="15">
+        <f t="shared" si="7"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
       <c r="S71" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3310.0844444444442</v>
       </c>
     </row>
@@ -15253,12 +15365,16 @@
       <c r="K72" s="9">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P72" s="10">
+      <c r="P72" s="16">
         <f t="shared" si="2"/>
         <v>4.6666666666666669E-2</v>
       </c>
+      <c r="Q72" s="15">
+        <f t="shared" si="7"/>
+        <v>4.6666666666666669E-2</v>
+      </c>
       <c r="S72" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3910.4177777777777</v>
       </c>
     </row>
